--- a/db/who/data.xlsx
+++ b/db/who/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Burgi\InfoVis-Verkeersongevallen\db\who\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82A3C69-E875-4A43-96B3-7DF50E636EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EE6CDD-F42D-4E3B-B698-3A23E3E0C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="7" xr2:uid="{FB4BB8AA-82A9-4755-94D4-5B7996097049}"/>
   </bookViews>
